--- a/database.xlsx
+++ b/database.xlsx
@@ -328,7 +328,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,59 +579,386 @@
       </c>
     </row>
     <row r="9">
-      <c r="C9">
+      <c r="C9" s="0">
         <f>'Лист1'!E5*2</f>
         <v/>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <f>'Лист1'!F5*2</f>
         <v/>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <f>'Лист1'!G5*2</f>
         <v/>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <f>'Лист1'!H5*2</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="C10">
+      <c r="C10" s="0">
         <f>'Лист1'!E6*2</f>
         <v/>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <f>'Лист1'!F6*2</f>
         <v/>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <f>'Лист1'!G6*2</f>
         <v/>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <f>'Лист1'!H6*2</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="C11">
+      <c r="C11" s="0">
         <f>'Лист1'!E7*2</f>
         <v/>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <f>'Лист1'!F7*2</f>
         <v/>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <f>'Лист1'!G7*2</f>
         <v/>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <f>'Лист1'!H7*2</f>
         <v/>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" s="0">
+        <f>'Лист1'!E5*2</f>
+        <v/>
+      </c>
+      <c r="D12" s="0">
+        <f>'Лист1'!F5*2</f>
+        <v/>
+      </c>
+      <c r="E12" s="0">
+        <f>'Лист1'!G5*2</f>
+        <v/>
+      </c>
+      <c r="F12" s="0">
+        <f>'Лист1'!H5*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="0">
+        <f>'Лист1'!E6*2</f>
+        <v/>
+      </c>
+      <c r="D13" s="0">
+        <f>'Лист1'!F6*2</f>
+        <v/>
+      </c>
+      <c r="E13" s="0">
+        <f>'Лист1'!G6*2</f>
+        <v/>
+      </c>
+      <c r="F13" s="0">
+        <f>'Лист1'!H6*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="0">
+        <f>'Лист1'!E7*2</f>
+        <v/>
+      </c>
+      <c r="D14" s="0">
+        <f>'Лист1'!F7*2</f>
+        <v/>
+      </c>
+      <c r="E14" s="0">
+        <f>'Лист1'!G7*2</f>
+        <v/>
+      </c>
+      <c r="F14" s="0">
+        <f>'Лист1'!H7*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="0">
+        <f>'Лист1'!E5*2</f>
+        <v/>
+      </c>
+      <c r="D15" s="0">
+        <f>'Лист1'!F5*2</f>
+        <v/>
+      </c>
+      <c r="E15" s="0">
+        <f>'Лист1'!G5*2</f>
+        <v/>
+      </c>
+      <c r="F15" s="0">
+        <f>'Лист1'!H5*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="0">
+        <f>'Лист1'!E6*2</f>
+        <v/>
+      </c>
+      <c r="D16" s="0">
+        <f>'Лист1'!F6*2</f>
+        <v/>
+      </c>
+      <c r="E16" s="0">
+        <f>'Лист1'!G6*2</f>
+        <v/>
+      </c>
+      <c r="F16" s="0">
+        <f>'Лист1'!H6*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="0">
+        <f>'Лист1'!E7*2</f>
+        <v/>
+      </c>
+      <c r="D17" s="0">
+        <f>'Лист1'!F7*2</f>
+        <v/>
+      </c>
+      <c r="E17" s="0">
+        <f>'Лист1'!G7*2</f>
+        <v/>
+      </c>
+      <c r="F17" s="0">
+        <f>'Лист1'!H7*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="0">
+        <f>'Лист1'!E5*2</f>
+        <v/>
+      </c>
+      <c r="D18" s="0">
+        <f>'Лист1'!F5*2</f>
+        <v/>
+      </c>
+      <c r="E18" s="0">
+        <f>'Лист1'!G5*2</f>
+        <v/>
+      </c>
+      <c r="F18" s="0">
+        <f>'Лист1'!H5*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="0">
+        <f>'Лист1'!E6*2</f>
+        <v/>
+      </c>
+      <c r="D19" s="0">
+        <f>'Лист1'!F6*2</f>
+        <v/>
+      </c>
+      <c r="E19" s="0">
+        <f>'Лист1'!G6*2</f>
+        <v/>
+      </c>
+      <c r="F19" s="0">
+        <f>'Лист1'!H6*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="0">
+        <f>'Лист1'!E7*2</f>
+        <v/>
+      </c>
+      <c r="D20" s="0">
+        <f>'Лист1'!F7*2</f>
+        <v/>
+      </c>
+      <c r="E20" s="0">
+        <f>'Лист1'!G7*2</f>
+        <v/>
+      </c>
+      <c r="F20" s="0">
+        <f>'Лист1'!H7*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="0">
+        <f>'Лист1'!E5*2</f>
+        <v/>
+      </c>
+      <c r="D21" s="0">
+        <f>'Лист1'!F5*2</f>
+        <v/>
+      </c>
+      <c r="E21" s="0">
+        <f>'Лист1'!G5*2</f>
+        <v/>
+      </c>
+      <c r="F21" s="0">
+        <f>'Лист1'!H5*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="0">
+        <f>'Лист1'!E6*2</f>
+        <v/>
+      </c>
+      <c r="D22" s="0">
+        <f>'Лист1'!F6*2</f>
+        <v/>
+      </c>
+      <c r="E22" s="0">
+        <f>'Лист1'!G6*2</f>
+        <v/>
+      </c>
+      <c r="F22" s="0">
+        <f>'Лист1'!H6*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="0">
+        <f>'Лист1'!E7*2</f>
+        <v/>
+      </c>
+      <c r="D23" s="0">
+        <f>'Лист1'!F7*2</f>
+        <v/>
+      </c>
+      <c r="E23" s="0">
+        <f>'Лист1'!G7*2</f>
+        <v/>
+      </c>
+      <c r="F23" s="0">
+        <f>'Лист1'!H7*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="0">
+        <f>'Лист1'!E5*2</f>
+        <v/>
+      </c>
+      <c r="D24" s="0">
+        <f>'Лист1'!F5*2</f>
+        <v/>
+      </c>
+      <c r="E24" s="0">
+        <f>'Лист1'!G5*2</f>
+        <v/>
+      </c>
+      <c r="F24" s="0">
+        <f>'Лист1'!H5*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="0">
+        <f>'Лист1'!E6*2</f>
+        <v/>
+      </c>
+      <c r="D25" s="0">
+        <f>'Лист1'!F6*2</f>
+        <v/>
+      </c>
+      <c r="E25" s="0">
+        <f>'Лист1'!G6*2</f>
+        <v/>
+      </c>
+      <c r="F25" s="0">
+        <f>'Лист1'!H6*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="0">
+        <f>'Лист1'!E7*2</f>
+        <v/>
+      </c>
+      <c r="D26" s="0">
+        <f>'Лист1'!F7*2</f>
+        <v/>
+      </c>
+      <c r="E26" s="0">
+        <f>'Лист1'!G7*2</f>
+        <v/>
+      </c>
+      <c r="F26" s="0">
+        <f>'Лист1'!H7*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="0">
+        <f>'Лист1'!E5*2</f>
+        <v/>
+      </c>
+      <c r="D27" s="0">
+        <f>'Лист1'!F5*2</f>
+        <v/>
+      </c>
+      <c r="E27" s="0">
+        <f>'Лист1'!G5*2</f>
+        <v/>
+      </c>
+      <c r="F27" s="0">
+        <f>'Лист1'!H5*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="0">
+        <f>'Лист1'!E6*2</f>
+        <v/>
+      </c>
+      <c r="D28" s="0">
+        <f>'Лист1'!F6*2</f>
+        <v/>
+      </c>
+      <c r="E28" s="0">
+        <f>'Лист1'!G6*2</f>
+        <v/>
+      </c>
+      <c r="F28" s="0">
+        <f>'Лист1'!H6*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="0">
+        <f>'Лист1'!E7*2</f>
+        <v/>
+      </c>
+      <c r="D29" s="0">
+        <f>'Лист1'!F7*2</f>
+        <v/>
+      </c>
+      <c r="E29" s="0">
+        <f>'Лист1'!G7*2</f>
+        <v/>
+      </c>
+      <c r="F29" s="0">
+        <f>'Лист1'!H7*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -328,7 +328,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,9 +956,63 @@
         <v/>
       </c>
     </row>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
+    <row r="30">
+      <c r="C30" s="0">
+        <f>'Лист1'!E5*2</f>
+        <v/>
+      </c>
+      <c r="D30" s="0">
+        <f>'Лист1'!F5*2</f>
+        <v/>
+      </c>
+      <c r="E30" s="0">
+        <f>'Лист1'!G5*2</f>
+        <v/>
+      </c>
+      <c r="F30" s="0">
+        <f>'Лист1'!H5*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="0">
+        <f>'Лист1'!E6*2</f>
+        <v/>
+      </c>
+      <c r="D31" s="0">
+        <f>'Лист1'!F6*2</f>
+        <v/>
+      </c>
+      <c r="E31" s="0">
+        <f>'Лист1'!G6*2</f>
+        <v/>
+      </c>
+      <c r="F31" s="0">
+        <f>'Лист1'!H6*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="0">
+        <f>'Лист1'!E7*2</f>
+        <v/>
+      </c>
+      <c r="D32" s="0">
+        <f>'Лист1'!F7*2</f>
+        <v/>
+      </c>
+      <c r="E32" s="0">
+        <f>'Лист1'!G7*2</f>
+        <v/>
+      </c>
+      <c r="F32" s="0">
+        <f>'Лист1'!H7*2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -328,7 +328,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,9 +1010,90 @@
         <v/>
       </c>
     </row>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
+    <row r="33">
+      <c r="C33" s="0" t="n">
+        <v>22222</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>22222</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>22222</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="0" t="n">
+        <v>86868</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>86868</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>86868</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="n">
+        <v>22222</v>
+      </c>
+      <c r="D36" t="n">
+        <v>22222</v>
+      </c>
+      <c r="E36" t="n">
+        <v>22222</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="n">
+        <v>86868</v>
+      </c>
+      <c r="D37" t="n">
+        <v>86868</v>
+      </c>
+      <c r="E37" t="n">
+        <v>86868</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="n">
+        <v>42</v>
+      </c>
+      <c r="D38" t="n">
+        <v>42</v>
+      </c>
+      <c r="E38" t="n">
+        <v>42</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
